--- a/RACI Sample.xlsx
+++ b/RACI Sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555AAC2-6358-40E1-AAE2-48C07D2CC213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{5555AAC2-6358-40E1-AAE2-48C07D2CC213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AB41F286-185C-4D4E-907F-A2151A9AE68A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1148BEFB-AB08-41F0-B0C1-0E47EC20B078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1148BEFB-AB08-41F0-B0C1-0E47EC20B078}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="157">
   <si>
     <t>Azure DevOps Admin</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Shared Components</t>
   </si>
   <si>
-    <t>Service Healths</t>
-  </si>
-  <si>
     <t>Suggested Roles</t>
   </si>
   <si>
@@ -221,13 +218,300 @@
   </si>
   <si>
     <t>Proactively review usage logs to try to anticipate throttle conditions.</t>
+  </si>
+  <si>
+    <t>Team Project</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>Service Hooks</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Jobs and Retention</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Source
+Control</t>
+  </si>
+  <si>
+    <t>Tagging</t>
+  </si>
+  <si>
+    <t>Pull Requests</t>
+  </si>
+  <si>
+    <t>Code Reviews</t>
+  </si>
+  <si>
+    <t>Continuous
+Integration</t>
+  </si>
+  <si>
+    <t>Continuous
+Delivery</t>
+  </si>
+  <si>
+    <t>Continuous
+Testing</t>
+  </si>
+  <si>
+    <t>Continuous
+Deployment</t>
+  </si>
+  <si>
+    <t>Repositories Management</t>
+  </si>
+  <si>
+    <t>Branching Strategy</t>
+  </si>
+  <si>
+    <t>Branches Management</t>
+  </si>
+  <si>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>Business Logic Validation</t>
+  </si>
+  <si>
+    <t>Best Practices Validation</t>
+  </si>
+  <si>
+    <t>Team Project Agents Maintenance</t>
+  </si>
+  <si>
+    <t>Technologies and Dependencies</t>
+  </si>
+  <si>
+    <t>Configuration and Options</t>
+  </si>
+  <si>
+    <t>Builds Tracking and FollowUp</t>
+  </si>
+  <si>
+    <t>Changes Auditing</t>
+  </si>
+  <si>
+    <t>Platform and Frameworks</t>
+  </si>
+  <si>
+    <t>Deployment Configuration</t>
+  </si>
+  <si>
+    <t>Release Tracking and FollowUp</t>
+  </si>
+  <si>
+    <t>Deployment Validation</t>
+  </si>
+  <si>
+    <t>Pipeline Modification</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Non-Functional Testing</t>
+  </si>
+  <si>
+    <t>Vulnerability Testing/Scanning</t>
+  </si>
+  <si>
+    <t>Mocks Management</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>User Acceptance Tests</t>
+  </si>
+  <si>
+    <t>Testing Follow Up - Regression</t>
+  </si>
+  <si>
+    <t>Deployment/Environment Configuration</t>
+  </si>
+  <si>
+    <t>Configuration Tokenization</t>
+  </si>
+  <si>
+    <t>Configuration Settings</t>
+  </si>
+  <si>
+    <t>Environment/Stages Validation</t>
+  </si>
+  <si>
+    <t>Approval Workflow Definition</t>
+  </si>
+  <si>
+    <t>Rollback Strategy</t>
+  </si>
+  <si>
+    <t>Producciont Environment Approval</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Team Project Administration</t>
+  </si>
+  <si>
+    <t>Source Control</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>Continuous Delivery</t>
+  </si>
+  <si>
+    <t>Continuous Testing</t>
+  </si>
+  <si>
+    <t>Continuous Deployment</t>
+  </si>
+  <si>
+    <t>Service Health</t>
+  </si>
+  <si>
+    <t>Definition of dashboards required to track work and quality for projects, teams and sprints. There must be a standard set of dashboards required for all projects but some projects may require additional information to be tracked.</t>
+  </si>
+  <si>
+    <t>Integrations required for a specific project, for example, it can be a notification from a Jenkins server so that a deployment can start after an artifact has been built externally.</t>
+  </si>
+  <si>
+    <t>Manage Agent Pools that have specific requirements for a particular project (features not available on "org wide" agents). Deployment Pools are normally project specific and should be managed at this level.</t>
+  </si>
+  <si>
+    <t>Team management, grouping members to simplify classification and permissions</t>
+  </si>
+  <si>
+    <t>Definition of a Branching Strategy, normally adhering to global standards or documenting specific needs to modify the standard for the current project</t>
+  </si>
+  <si>
+    <t>Creation and management of repositories (both Git and TFVC)</t>
+  </si>
+  <si>
+    <t>Branches governance, maintenance and deletion.</t>
+  </si>
+  <si>
+    <t>Access control to repositories and branches.</t>
+  </si>
+  <si>
+    <t>Pull Requests workflow definition and follow up.</t>
+  </si>
+  <si>
+    <t>Code Review workflow definition and follow up.</t>
+  </si>
+  <si>
+    <t>Manage policies over source code and repositories, requirements for commits, reviews, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Pipeline management, definition and maintenance. </t>
+  </si>
+  <si>
+    <t>Evaluation of business logic within the pipeline, automation of the validation process.</t>
+  </si>
+  <si>
+    <t>Automation of static code analysis, adhering to enterprise standards, evaluation of coding best practices within the pipeline.</t>
+  </si>
+  <si>
+    <t>Documentation of technologies and requirements for the solutions within the current project, used as inputs for Team Project Agents Maintenance.</t>
+  </si>
+  <si>
+    <t>Pipeline auditing, documenting the reason for changes on any pipeline.</t>
+  </si>
+  <si>
+    <t>Management of agents and features specific to current team project. Installation, updates/upgrades, patching, etc. of agents and software components.</t>
+  </si>
+  <si>
+    <t>Documentation and management of all platform features and frameworks needed for the solution, process of installation, configuration and management of software features for delivery.</t>
+  </si>
+  <si>
+    <t>Pipeline Management</t>
+  </si>
+  <si>
+    <t>General Pipeline management, definition and maintenance. Review modifications from other processes.</t>
+  </si>
+  <si>
+    <t>Manages settings for deployment, define a strategy to set values during the deployment process in secure automated fashion.</t>
+  </si>
+  <si>
+    <t>Verification of deployment from requirements and functional stand points.</t>
+  </si>
+  <si>
+    <t>Definition of changes to Delivery Pipeline in order to accommodate Continuous Testing requirements.</t>
+  </si>
+  <si>
+    <t>Definition of changes to Delivery Pipeline in order to accommodate Continuous Deployment requirements.</t>
+  </si>
+  <si>
+    <t>Production Environment Approval</t>
+  </si>
+  <si>
+    <t>Management of Builds, verification of build results, tracking of bugs, regression and broken builds.</t>
+  </si>
+  <si>
+    <t>Release Tracking and Follow-up</t>
+  </si>
+  <si>
+    <t>Management of Deployments, verification of de installations, tracking of bugs, regression and broken deployments.</t>
+  </si>
+  <si>
+    <t>Builds Tracking and Follow-up</t>
+  </si>
+  <si>
+    <t>Testing Follow-up - Regression</t>
+  </si>
+  <si>
+    <t>Execution and verification of results for functional tests including Manual, Exploratory and Automated UI.</t>
+  </si>
+  <si>
+    <t>Execution and verification of results for non-functional tests including Performance, Load, Stress, etc.</t>
+  </si>
+  <si>
+    <t>Execution and verification of results for vulnerability tests including penetration tests, threat analysis, etc.</t>
+  </si>
+  <si>
+    <t>Manage and maintain a mocking strategy and framework to support all testing needs.</t>
+  </si>
+  <si>
+    <t>Execution and verification of results when calling external components.</t>
+  </si>
+  <si>
+    <t>Execution and verification of business requirements and functionality for the solution.</t>
+  </si>
+  <si>
+    <t>Management and tracking of all bugs generated as a result of the testing strategy.</t>
+  </si>
+  <si>
+    <t>Management of environment or stages, configuration of features and software packages for servers and deployment pools.</t>
+  </si>
+  <si>
+    <t>Provide and document a tokenization strategy for the solution, document each setting and the correct hydration procedures.</t>
+  </si>
+  <si>
+    <t>Management of settings specific for each environment, given a proper hydration strategy, configure each environment so that it can be configured in an automated fashion within a pipeline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification of </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +549,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -286,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,12 +612,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,16 +696,7 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -372,12 +715,108 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1215,37 +1654,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA8F21-D4D7-4E2E-AD83-82E54F2ACB58}">
-  <dimension ref="A2:N18"/>
+  <dimension ref="A2:N68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="14" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" customWidth="1"/>
+    <col min="1" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="14" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1280,12 +1719,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -1310,9 +1749,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,9 +1775,9 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1362,11 +1801,11 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1400,9 +1839,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1422,9 +1861,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1444,9 +1883,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1466,9 +1905,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1504,9 +1943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1542,9 +1981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1578,9 +2017,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1598,11 +2037,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1618,9 +2057,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,11 +2083,11 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1666,11 +2105,11 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1686,24 +2125,1698 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A27:B34"/>
+    <mergeCell ref="A35:B42"/>
+    <mergeCell ref="A43:B49"/>
+    <mergeCell ref="A50:B58"/>
+    <mergeCell ref="A59:B68"/>
     <mergeCell ref="H2:N2"/>
-    <mergeCell ref="A4:A18"/>
     <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A4:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D4:N18">
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="141" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="142" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="143" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="144" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:N26">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:N42 D44:N44">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:N46 D49:N49 I48:N48 M47:N47">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:N62">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:N57 D52:N53">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:N54">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:N68">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:N59">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:N43">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:N50">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:N45">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H48">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:L47">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:N58">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:L58">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:N51">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:N60">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:N61">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1714,320 +3827,818 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B397EC1-7EFF-4FB3-AFC5-F7CF2A5AAA60}">
-  <dimension ref="B2:E32"/>
+  <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="17" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
+      <c r="C47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="17"/>
+      <c r="C49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="17"/>
+      <c r="C50" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="17"/>
+      <c r="C56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="17"/>
+      <c r="C57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="17"/>
+      <c r="C58" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="17"/>
+      <c r="C62" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="17"/>
+      <c r="C63" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="17"/>
+      <c r="C64" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="17"/>
+      <c r="C66" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="69" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="C70" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="17"/>
+      <c r="C71" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="17"/>
+      <c r="C72" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="17"/>
+      <c r="C73" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="17"/>
+      <c r="C74" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="17"/>
+      <c r="C76" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="17"/>
+      <c r="C77" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="17"/>
+      <c r="C80" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="17"/>
+      <c r="C81" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="17"/>
+      <c r="C82" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="17"/>
+      <c r="C83" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="17"/>
+      <c r="C84" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="17"/>
+      <c r="C85" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="17"/>
+      <c r="C86" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="17"/>
+      <c r="C87" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="17"/>
+      <c r="C88" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B79:B88"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B18:B32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B43:B50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" location="project-collection-administrator-pca-role-and-managing-collections-of-projects" xr:uid="{19AD5B92-EEB1-4A72-B977-A81505FF80D7}"/>

--- a/RACI Sample.xlsx
+++ b/RACI Sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{5555AAC2-6358-40E1-AAE2-48C07D2CC213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AB41F286-185C-4D4E-907F-A2151A9AE68A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293460B0-56D9-4AA6-A6A2-0F6AA2DB93A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1148BEFB-AB08-41F0-B0C1-0E47EC20B078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1148BEFB-AB08-41F0-B0C1-0E47EC20B078}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="167">
   <si>
     <t>Azure DevOps Admin</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Manage Agent Pools that have specific requirements for a particular project (features not available on "org wide" agents). Deployment Pools are normally project specific and should be managed at this level.</t>
   </si>
   <si>
-    <t>Team management, grouping members to simplify classification and permissions</t>
-  </si>
-  <si>
     <t>Definition of a Branching Strategy, normally adhering to global standards or documenting specific needs to modify the standard for the current project</t>
   </si>
   <si>
@@ -504,7 +501,40 @@
     <t>Management of settings specific for each environment, given a proper hydration strategy, configure each environment so that it can be configured in an automated fashion within a pipeline.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verification of </t>
+    <t>Manage team project settings, enabled/disabled features, process template, etc.</t>
+  </si>
+  <si>
+    <t>Team management, grouping members to simplify classification and permissions.</t>
+  </si>
+  <si>
+    <t>Access to different features within the team project.</t>
+  </si>
+  <si>
+    <t>Management of notification delivery within a team project.</t>
+  </si>
+  <si>
+    <t>Management of history for pipelines and tests execution results. Management of jobs configuration and requirements for the organization.</t>
+  </si>
+  <si>
+    <t>Tag strategy and requirements definition.</t>
+  </si>
+  <si>
+    <t>Manages settings for pipelines, define a strategy and baseline for integration.</t>
+  </si>
+  <si>
+    <t>Verification of compliance for different stages, including the requirements for pre and post approvals.</t>
+  </si>
+  <si>
+    <t>Definition of teams and hierarchy for approvals reflecting established RFC processes.</t>
+  </si>
+  <si>
+    <t>Rules and scenarios for rollback including n-1 releases and data/stores contingency and rollback procedures</t>
+  </si>
+  <si>
+    <t>Management of requirements to enable continuous deployment including multidisciplinary team approval, evidence and auditing.</t>
+  </si>
+  <si>
+    <t>Strategy to trace, capture and review metrics proactively to ensure service health.</t>
   </si>
 </sst>
 </file>
@@ -715,29 +745,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,6 +766,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1663,28 +1693,28 @@
       <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="14" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="1" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="14" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1719,11 +1749,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1749,9 +1779,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,9 +1805,9 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,9 +1831,9 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1839,9 +1869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1861,9 +1891,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1883,9 +1913,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1905,9 +1935,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,9 +1973,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1981,9 +2011,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2017,9 +2047,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2037,9 +2067,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2057,9 +2087,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2083,9 +2113,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2105,9 +2135,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
@@ -2125,9 +2155,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2151,9 +2181,9 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2175,9 +2205,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2201,9 +2231,9 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
@@ -2225,9 +2255,9 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2249,9 +2279,9 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2273,9 +2303,9 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
@@ -2297,10 +2327,10 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="21" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="2"/>
@@ -2321,11 +2351,11 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
@@ -2359,9 +2389,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="20"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2393,9 +2423,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2423,9 +2453,9 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2447,9 +2477,9 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
@@ -2471,9 +2501,9 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2499,9 +2529,9 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2525,9 +2555,9 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="1" t="s">
         <v>81</v>
       </c>
@@ -2557,13 +2587,13 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2593,10 +2623,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="2"/>
@@ -2619,10 +2649,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="2"/>
@@ -2645,9 +2675,9 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="20"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2681,9 +2711,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="20"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
@@ -2709,9 +2739,9 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="20"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2735,9 +2765,9 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2759,9 +2789,9 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="1" t="s">
         <v>88</v>
       </c>
@@ -2781,11 +2811,11 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2819,9 +2849,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="1" t="s">
         <v>89</v>
       </c>
@@ -2845,11 +2875,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="20"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2879,9 +2909,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="20"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="1" t="s">
         <v>90</v>
       </c>
@@ -2907,9 +2937,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2933,9 +2963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="20"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
@@ -2955,9 +2985,9 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
@@ -2981,11 +3011,11 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3019,9 +3049,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="20"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
@@ -3051,9 +3081,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="20"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
@@ -3077,9 +3107,9 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="20"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="1" t="s">
         <v>95</v>
       </c>
@@ -3107,9 +3137,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="20"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
@@ -3137,9 +3167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="20"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="1" t="s">
         <v>97</v>
       </c>
@@ -3165,9 +3195,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="1" t="s">
         <v>98</v>
       </c>
@@ -3191,9 +3221,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="20"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="1" t="s">
         <v>99</v>
       </c>
@@ -3219,9 +3249,9 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="1" t="s">
         <v>100</v>
       </c>
@@ -3247,11 +3277,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
@@ -3285,9 +3315,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="20"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
@@ -3315,9 +3345,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="20"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="1" t="s">
         <v>101</v>
       </c>
@@ -3345,9 +3375,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="20"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="1" t="s">
         <v>102</v>
       </c>
@@ -3369,9 +3399,9 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="20"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="1" t="s">
         <v>103</v>
       </c>
@@ -3395,9 +3425,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="20"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="1" t="s">
         <v>104</v>
       </c>
@@ -3419,9 +3449,9 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="20"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="1" t="s">
         <v>105</v>
       </c>
@@ -3451,9 +3481,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="20"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="1" t="s">
         <v>106</v>
       </c>
@@ -3479,9 +3509,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="20"/>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="1" t="s">
         <v>107</v>
       </c>
@@ -3511,9 +3541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3543,15 +3573,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A4:A26"/>
     <mergeCell ref="A27:B34"/>
     <mergeCell ref="A35:B42"/>
     <mergeCell ref="A43:B49"/>
     <mergeCell ref="A50:B58"/>
     <mergeCell ref="A59:B68"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A4:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D4:N18">
@@ -3829,19 +3859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B397EC1-7EFF-4FB3-AFC5-F7CF2A5AAA60}">
   <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3851,8 +3881,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
@@ -3860,8 +3890,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3869,8 +3899,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
@@ -3878,8 +3908,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
@@ -3887,8 +3917,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
       <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
@@ -3896,8 +3926,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
@@ -3905,8 +3935,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
@@ -3914,8 +3944,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
@@ -3923,8 +3953,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
@@ -3932,8 +3962,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3971,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
@@ -3950,13 +3980,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -3969,8 +3999,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
       <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
@@ -3981,8 +4011,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
       <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
@@ -3993,8 +4023,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
       <c r="C21" s="14" t="s">
         <v>48</v>
       </c>
@@ -4005,8 +4035,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
       <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
@@ -4017,8 +4047,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
       <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
@@ -4029,8 +4059,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
       <c r="C24" s="14" t="s">
         <v>8</v>
       </c>
@@ -4041,8 +4071,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
       <c r="C25" s="14" t="s">
         <v>23</v>
       </c>
@@ -4053,8 +4083,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
       <c r="C26" s="14" t="s">
         <v>24</v>
       </c>
@@ -4065,8 +4095,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
       <c r="C27" s="14" t="s">
         <v>25</v>
       </c>
@@ -4077,8 +4107,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
       <c r="C28" s="14" t="s">
         <v>26</v>
       </c>
@@ -4089,8 +4119,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
       <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
@@ -4101,8 +4131,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
       <c r="C30" s="14" t="s">
         <v>27</v>
       </c>
@@ -4113,8 +4143,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
       <c r="C31" s="14" t="s">
         <v>59</v>
       </c>
@@ -4125,8 +4155,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
       <c r="C32" s="14" t="s">
         <v>115</v>
       </c>
@@ -4137,497 +4167,467 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+      <c r="D34" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
+      <c r="D36" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
       <c r="C37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+      <c r="D37" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
       <c r="C38" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
       <c r="C39" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
       <c r="C40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="D40" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
       <c r="C41" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
+    </row>
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
       <c r="C44" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
       <c r="C45" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="17"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
       <c r="C46" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
+      <c r="D46" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
       <c r="C47" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
       <c r="C48" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
       <c r="C49" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
       <c r="C50" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
       <c r="C53" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="17"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
       <c r="C54" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="17"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
       <c r="C55" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
       <c r="C56" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="26"/>
       <c r="C57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="17"/>
+      <c r="D57" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="26"/>
       <c r="C58" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="17"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
       <c r="C59" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="26"/>
       <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
-      <c r="C63" s="14" t="s">
+      <c r="D63" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="17"/>
+    </row>
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
       <c r="C64" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
       <c r="C65" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="17"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
       <c r="C66" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="12"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="17"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="26"/>
       <c r="C67" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="12"/>
-    </row>
-    <row r="69" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="17"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="26"/>
       <c r="C70" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="26"/>
       <c r="C71" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="26"/>
       <c r="C72" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="26"/>
       <c r="C73" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="26"/>
       <c r="C74" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" s="12"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="17"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="26"/>
       <c r="C75" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="17"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="26"/>
       <c r="C76" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="26"/>
+      <c r="C77" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="17" t="s">
+    </row>
+    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" s="12"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="17"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="26"/>
       <c r="C80" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="26"/>
       <c r="C81" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="17"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="26"/>
       <c r="C82" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="12"/>
-    </row>
-    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="17"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="26"/>
       <c r="C83" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" s="12"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="17"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="26"/>
       <c r="C84" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E84" s="12"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="26"/>
       <c r="C85" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="17"/>
+      <c r="D85" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="26"/>
       <c r="C86" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="12"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="17"/>
+      <c r="D86" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="26"/>
       <c r="C87" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="12"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="26"/>
       <c r="C88" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="12"/>
+      <c r="D88" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
